--- a/src/data/carta.xlsx
+++ b/src/data/carta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alejandrorosas/personal/xoco-carta/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE042BF-776E-A54E-B702-87E663F1DCD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F0071B-33A7-CE48-8D85-2737849B05BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{BD436563-524E-3745-9593-8EA2223D1823}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22540" xr2:uid="{BD436563-524E-3745-9593-8EA2223D1823}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -515,9 +515,6 @@
     <t>Chocolate o Nutella</t>
   </si>
   <si>
-    <t>Xocoalta o Nutella</t>
-  </si>
-  <si>
     <t>Dos chocolates</t>
   </si>
   <si>
@@ -527,9 +524,6 @@
     <t>Chocolate blanco</t>
   </si>
   <si>
-    <t>Xocoalta blanca</t>
-  </si>
-  <si>
     <t>Dolç de llet</t>
   </si>
   <si>
@@ -797,12 +791,6 @@
     <t xml:space="preserve">Crepes dulces y gofres </t>
   </si>
   <si>
-    <t>Creps dolçes i gofres</t>
-  </si>
-  <si>
-    <t>Pastlería</t>
-  </si>
-  <si>
     <t>Pastisseria</t>
   </si>
   <si>
@@ -846,6 +834,18 @@
   </si>
   <si>
     <t>11</t>
+  </si>
+  <si>
+    <t>Xocolata blanca</t>
+  </si>
+  <si>
+    <t>Creps dolces i gofres</t>
+  </si>
+  <si>
+    <t>Pastelería</t>
+  </si>
+  <si>
+    <t>Xocolata o Nutella</t>
   </si>
 </sst>
 </file>
@@ -1214,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764B0D6E-F8EC-D040-9DCC-1BCD47711C89}">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1231,25 +1231,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" t="s">
         <v>218</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>219</v>
       </c>
-      <c r="C1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D1" t="s">
-        <v>221</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1260,13 +1260,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1280,13 +1280,13 @@
         <v>1.4</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1300,13 +1300,13 @@
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1320,13 +1320,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1340,13 +1340,13 @@
         <v>1.3</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1360,13 +1360,13 @@
         <v>1.5</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1380,13 +1380,13 @@
         <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1400,13 +1400,13 @@
         <v>1.4</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1420,13 +1420,13 @@
         <v>2.5</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1437,13 +1437,13 @@
         <v>1.7</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1454,13 +1454,13 @@
         <v>2</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1474,13 +1474,13 @@
         <v>2</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1494,13 +1494,13 @@
         <v>2.5</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1514,13 +1514,13 @@
         <v>1.9</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -1537,13 +1537,13 @@
         <v>4.5</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G16" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1557,13 +1557,13 @@
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1577,13 +1577,13 @@
         <v>4.5</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1597,13 +1597,13 @@
         <v>2.5</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1617,13 +1617,13 @@
         <v>2.5</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1637,13 +1637,13 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F21" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G21" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1657,13 +1657,13 @@
         <v>2.4</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F23" t="s">
         <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1677,13 +1677,13 @@
         <v>1.7</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F24" t="s">
         <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1697,13 +1697,13 @@
         <v>2</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F25" t="s">
         <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1717,13 +1717,13 @@
         <v>3.5</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F26" t="s">
         <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1737,13 +1737,13 @@
         <v>3.5</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F27" t="s">
         <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1757,13 +1757,13 @@
         <v>3</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F28" t="s">
         <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1777,13 +1777,13 @@
         <v>3.3</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F29" t="s">
         <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1797,13 +1797,13 @@
         <v>3</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F30" t="s">
         <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1817,13 +1817,13 @@
         <v>4.5</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F31" t="s">
         <v>36</v>
       </c>
       <c r="G31" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1837,13 +1837,13 @@
         <v>3.5</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F32" t="s">
         <v>36</v>
       </c>
       <c r="G32" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1857,13 +1857,13 @@
         <v>3</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F33" t="s">
         <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1877,13 +1877,13 @@
         <v>3.3</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F34" t="s">
         <v>36</v>
       </c>
       <c r="G34" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1897,13 +1897,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F35" t="s">
         <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -1917,13 +1917,13 @@
         <v>4.5</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F36" t="s">
         <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1937,13 +1937,13 @@
         <v>3.5</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F37" t="s">
         <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1957,13 +1957,13 @@
         <v>3.5</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F38" t="s">
         <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -1980,13 +1980,13 @@
         <v>1.4</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G40" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -2000,13 +2000,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G41" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -2017,19 +2017,19 @@
         <v>68</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D43" s="1">
         <v>4</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G43" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2043,13 +2043,13 @@
         <v>2</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G44" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2060,19 +2060,19 @@
         <v>72</v>
       </c>
       <c r="C45" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D45" s="1">
         <v>4</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -2080,19 +2080,19 @@
         <v>73</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D46" s="1">
         <v>3</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G46" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -2100,19 +2100,19 @@
         <v>74</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D47" s="1">
         <v>2.5</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G47" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -2126,13 +2126,13 @@
         <v>4</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G48" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -2149,13 +2149,13 @@
         <v>3.3</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G50" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2169,13 +2169,13 @@
         <v>1.4</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G51" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2186,13 +2186,13 @@
         <v>2</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G52" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2203,13 +2203,13 @@
         <v>2</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G53" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2220,13 +2220,13 @@
         <v>2</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G54" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="C55" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D55" s="1">
         <v>2</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G55" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2257,13 +2257,13 @@
         <v>2</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G56" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2277,13 +2277,13 @@
         <v>1</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G57" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2297,13 +2297,13 @@
         <v>2</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G58" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2317,13 +2317,13 @@
         <v>2</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G59" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2337,13 +2337,13 @@
         <v>2</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G60" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2357,13 +2357,13 @@
         <v>1.5</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G61" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2377,13 +2377,13 @@
         <v>1.5</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G62" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2394,13 +2394,13 @@
         <v>2.4</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G63" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -2418,13 +2418,13 @@
         <v>3.8</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G65" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2438,13 +2438,13 @@
         <v>3.5</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G66" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2458,13 +2458,13 @@
         <v>3.5</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G67" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2478,13 +2478,13 @@
         <v>3</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G68" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2498,13 +2498,13 @@
         <v>4.5</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G69" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2518,13 +2518,13 @@
         <v>4.5</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G70" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2538,13 +2538,13 @@
         <v>3</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G71" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -2558,18 +2558,18 @@
         <v>4</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G72" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>123</v>
@@ -2578,13 +2578,13 @@
         <v>4</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G73" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2595,13 +2595,13 @@
         <v>4.8</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G74" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2615,18 +2615,18 @@
         <v>5.5</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G75" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B76" t="s">
         <v>127</v>
@@ -2635,13 +2635,13 @@
         <v>2</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G76" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -2655,13 +2655,13 @@
         <v>2.5</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G77" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -2680,13 +2680,13 @@
         <v>3</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G79" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="119" x14ac:dyDescent="0.2">
@@ -2697,19 +2697,19 @@
         <v>159</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D80" s="1">
         <v>4</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G80" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2723,13 +2723,13 @@
         <v>2.5</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G82" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2743,13 +2743,13 @@
         <v>3.5</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G83" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2763,13 +2763,13 @@
         <v>3</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G84" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -2777,19 +2777,19 @@
         <v>134</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D85" s="1">
         <v>4.5</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G85" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -2806,13 +2806,13 @@
         <v>4</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G86" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2820,19 +2820,19 @@
         <v>138</v>
       </c>
       <c r="C87" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D87" s="1">
         <v>3.3</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G87" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2840,19 +2840,19 @@
         <v>139</v>
       </c>
       <c r="C88" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D88" s="1">
         <v>3</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G88" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -2866,13 +2866,13 @@
         <v>5</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G89" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2886,13 +2886,13 @@
         <v>4</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G91" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2906,13 +2906,13 @@
         <v>3.9</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G92" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2926,13 +2926,13 @@
         <v>3.6</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G93" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2946,13 +2946,13 @@
         <v>3.9</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G94" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2966,13 +2966,13 @@
         <v>3.5</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G95" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2986,13 +2986,13 @@
         <v>3.5</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G96" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3003,13 +3003,13 @@
         <v>3.9</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G97" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3023,13 +3023,13 @@
         <v>3.5</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G98" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3043,13 +3043,13 @@
         <v>3</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G99" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -3063,18 +3063,18 @@
         <v>4.5</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G100" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B101" t="s">
         <v>155</v>
@@ -3083,13 +3083,13 @@
         <v>5</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G101" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3097,616 +3097,616 @@
         <v>160</v>
       </c>
       <c r="B103" t="s">
-        <v>161</v>
+        <v>271</v>
       </c>
       <c r="D103" s="1">
         <v>3.4</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G103" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B104" t="s">
         <v>162</v>
-      </c>
-      <c r="B104" t="s">
-        <v>163</v>
       </c>
       <c r="D104" s="1">
         <v>3.4</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G104" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B105" t="s">
-        <v>165</v>
+        <v>268</v>
       </c>
       <c r="D105" s="1">
         <v>3.4</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G105" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B106" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D106" s="1">
         <v>3.2</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G106" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B107" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D107" s="1">
         <v>3.2</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G107" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B108" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D108" s="1">
         <v>3</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G108" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B109" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D109" s="1">
         <v>3</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G109" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B110" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D110" s="1">
         <v>3</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G110" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B111" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D111" s="1">
         <v>3</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G111" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B112" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D112" s="1">
         <v>3.2</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G112" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B113" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D113" s="1">
         <v>3.5</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G113" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B114" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D114" s="1">
         <v>4</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G114" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B115" t="s">
+        <v>183</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="B115" t="s">
-        <v>185</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="D115" s="1">
         <v>3.9</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G115" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B116" t="s">
+        <v>186</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="B116" t="s">
-        <v>188</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="D116" s="1">
         <v>0.6</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G116" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D118" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="G118" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B119" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D119" s="1">
         <v>1.5</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="G119" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B120" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D120" s="1">
         <v>1.8</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="G120" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B121" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D121" s="1">
         <v>1.5</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="G121" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B122" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D122" s="1">
         <v>1</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="G122" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D123" s="1">
         <v>2</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="G123" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D124" s="1">
         <v>3.5</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="G124" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D125" s="1">
         <v>2</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="G125" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B126" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D126" s="1">
         <v>2</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="G126" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B127" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D127" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="G127" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B128" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D128" s="1">
         <v>1.8</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="G128" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B129" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C129" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D129" s="1">
         <v>2</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="G129" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B130" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D130" s="1">
         <v>1</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="G130" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B131" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D131" s="1">
         <v>2</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="G131" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B132" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D132" s="1">
         <v>1.5</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="G132" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B133" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D133" s="1">
         <v>1.5</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="G133" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B134" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D134" s="1">
         <v>3.5</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="G134" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/carta.xlsx
+++ b/src/data/carta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alejandrorosas/personal/xoco-carta/src/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barbara/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F0071B-33A7-CE48-8D85-2737849B05BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CC6B88-1BA3-7848-9C62-B78BD4070E40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22540" xr2:uid="{BD436563-524E-3745-9593-8EA2223D1823}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{BD436563-524E-3745-9593-8EA2223D1823}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="284">
   <si>
     <t>Espresso</t>
   </si>
@@ -41,15 +41,6 @@
     <t>Americà</t>
   </si>
   <si>
-    <t>Doble</t>
-  </si>
-  <si>
-    <t>Descafeinado</t>
-  </si>
-  <si>
-    <t>Descafeïnat</t>
-  </si>
-  <si>
     <t>Cortado</t>
   </si>
   <si>
@@ -62,12 +53,6 @@
     <t>Cafè amb llet</t>
   </si>
   <si>
-    <t>Café con nata</t>
-  </si>
-  <si>
-    <t>Cafè amb nata</t>
-  </si>
-  <si>
     <t>Café con hielo</t>
   </si>
   <si>
@@ -80,9 +65,6 @@
     <t>Caputxino</t>
   </si>
   <si>
-    <t>Caramel Macchiato</t>
-  </si>
-  <si>
     <t>Bombón</t>
   </si>
   <si>
@@ -119,24 +101,6 @@
     <t>Irlandès</t>
   </si>
   <si>
-    <t>Caribeño</t>
-  </si>
-  <si>
-    <t>Caribeny</t>
-  </si>
-  <si>
-    <t>Hawaiano</t>
-  </si>
-  <si>
-    <t>Hawaià</t>
-  </si>
-  <si>
-    <t>Árabe</t>
-  </si>
-  <si>
-    <t>Àrab</t>
-  </si>
-  <si>
     <t>Licor de naranja, café, chocolate y nata/Licor de taronja, cafè, xocolata i nata</t>
   </si>
   <si>
@@ -146,9 +110,6 @@
     <t>Xocolata</t>
   </si>
   <si>
-    <t>Chocolate Pequeño</t>
-  </si>
-  <si>
     <t>Xocolata petita</t>
   </si>
   <si>
@@ -200,21 +161,9 @@
     <t>Chocolate con Baileys</t>
   </si>
   <si>
-    <t>Chocolate con ron</t>
-  </si>
-  <si>
-    <t>Xocolata amb rom</t>
-  </si>
-  <si>
     <t>Chocolate con licor de naranja</t>
   </si>
   <si>
-    <t>Descubra nuestra selección de infusiones y tés preguntando a nuestro personal</t>
-  </si>
-  <si>
-    <t>Descobreixi la nostra selecció de infusios i tes preguntant al nostre personal</t>
-  </si>
-  <si>
     <t>Suizo</t>
   </si>
   <si>
@@ -263,15 +212,6 @@
     <t>Con zumo de manzana o agua/ Amb suc de poma o aigua</t>
   </si>
   <si>
-    <t>Quitafrío</t>
-  </si>
-  <si>
-    <t>Treuelfred</t>
-  </si>
-  <si>
-    <t>Leche con whisky o ron, miel y especias/ Llet amb whisky o rom, mel i espècies</t>
-  </si>
-  <si>
     <t>Vaso de leche</t>
   </si>
   <si>
@@ -281,12 +221,6 @@
     <t>Latte Macchiato</t>
   </si>
   <si>
-    <t>Chocolate con Amaretto</t>
-  </si>
-  <si>
-    <t>Xocolata amb Amaretto</t>
-  </si>
-  <si>
     <t>Chocolate amb licor de taronja</t>
   </si>
   <si>
@@ -296,42 +230,9 @@
     <t>Infusions</t>
   </si>
   <si>
-    <t>Camomilla/Menta poleo/ Tila - Camamilla/Menta Poleo/ Til·la</t>
-  </si>
-  <si>
     <t>Cacaolat</t>
   </si>
   <si>
-    <t>Nestea</t>
-  </si>
-  <si>
-    <t>Bitter Kas</t>
-  </si>
-  <si>
-    <t>Trina</t>
-  </si>
-  <si>
-    <t>Aquarius</t>
-  </si>
-  <si>
-    <t>Agua</t>
-  </si>
-  <si>
-    <t>Aigua</t>
-  </si>
-  <si>
-    <t>Agua con gas</t>
-  </si>
-  <si>
-    <t>Aigua amb gas</t>
-  </si>
-  <si>
-    <t>Otros refrescos</t>
-  </si>
-  <si>
-    <t>Altres refrescos</t>
-  </si>
-  <si>
     <t>Cerveza</t>
   </si>
   <si>
@@ -395,33 +296,9 @@
     <t>Bull blanc</t>
   </si>
   <si>
-    <t>Tostada con huevo, bacon y queso</t>
-  </si>
-  <si>
-    <t>Torrada amb ou, bacó i formatge</t>
-  </si>
-  <si>
-    <t>Remenat d'ou, bacó i pernil</t>
-  </si>
-  <si>
-    <t>Porqueta</t>
-  </si>
-  <si>
-    <t>Porqueta con queso y chucrut</t>
-  </si>
-  <si>
-    <t>Porqueta amb formatge i xucrut</t>
-  </si>
-  <si>
     <t>Mig entrepà</t>
   </si>
   <si>
-    <t>Medio bocata de bacon o lomo</t>
-  </si>
-  <si>
-    <t>Mig entrepà de bacó o llom</t>
-  </si>
-  <si>
     <t>Tres quesos</t>
   </si>
   <si>
@@ -449,15 +326,6 @@
     <t>Cadí</t>
   </si>
   <si>
-    <t>Pirineu</t>
-  </si>
-  <si>
-    <t>Steak Sandwich</t>
-  </si>
-  <si>
-    <t>Ternera, cebolla caramelizada, mostaza y queso/ Vedella, ceba caramel·litzada, mostassa i formatge</t>
-  </si>
-  <si>
     <t>Queso de cabra y nueces</t>
   </si>
   <si>
@@ -470,12 +338,6 @@
     <t>Formatge de cabra</t>
   </si>
   <si>
-    <t>Atún</t>
-  </si>
-  <si>
-    <t>Tonyina</t>
-  </si>
-  <si>
     <t>Pizza</t>
   </si>
   <si>
@@ -512,9 +374,6 @@
     <t>Truita a la francesa amb 2 extres</t>
   </si>
   <si>
-    <t>Chocolate o Nutella</t>
-  </si>
-  <si>
     <t>Dos chocolates</t>
   </si>
   <si>
@@ -620,9 +479,6 @@
     <t>Magdalena en Tulipa</t>
   </si>
   <si>
-    <t>Brownie</t>
-  </si>
-  <si>
     <t>Alfajores de Maicena</t>
   </si>
   <si>
@@ -656,24 +512,6 @@
     <t>Merengas</t>
   </si>
   <si>
-    <t>Galletas</t>
-  </si>
-  <si>
-    <t>Galetes</t>
-  </si>
-  <si>
-    <t>Cookies normales</t>
-  </si>
-  <si>
-    <t>Cookies normals</t>
-  </si>
-  <si>
-    <t>Cookies de avena o chocolate</t>
-  </si>
-  <si>
-    <t>Cookies de civada o xocolata</t>
-  </si>
-  <si>
     <t>Ración de tarta</t>
   </si>
   <si>
@@ -692,9 +530,6 @@
     <t>precio</t>
   </si>
   <si>
-    <t>Revoltijo de huevo, queso y jamón</t>
-  </si>
-  <si>
     <t>Medio bocadillo</t>
   </si>
   <si>
@@ -713,30 +548,12 @@
     <t>Ració de melindros</t>
   </si>
   <si>
-    <t>Opciones de base: Leche, leche desnatada, leche sin lactosa, bebida de coco, bebida de soja, bebida de avena - Azúcar o sacarina/  Opcions de Base: Llet, llet denatada, llet sense lactosa, beguda de coco, beguda de soia, beguda de civada - Sucre o sacarina</t>
-  </si>
-  <si>
-    <t>Elige tus ingrdientes/ Tria els teus ingredients</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naranja o manzana / Taronja o poma </t>
-  </si>
-  <si>
     <t>EXTRAS: Jamón dulce, queso, tomate, queso de cabra, salmón, cebolla caramelizada, bacon, atún, brie, queso azul, sobrasada, jamon salado, campiñones/ EXTRES: Pernil dolç, formatge, tomàquet, formatge de cabra, salmó, ceba caramel·litzada, bacó, tonyina, brie, formatge blau, sobrassada, pernil salat, campinyons</t>
   </si>
   <si>
-    <t>Pollo, huevo, tomate, queso y jamón del país/ Pollastre, ou, tomàquet, formatge i pernil del país</t>
-  </si>
-  <si>
     <t>Brie, mermelada y nueces/ Brie, melmelada i nous</t>
   </si>
   <si>
-    <t>Brie y jamón dulce/ Brie i pernil dolç</t>
-  </si>
-  <si>
-    <t>Nutella o dulce de leche/ Nutella o dolç de llet</t>
-  </si>
-  <si>
     <t>Cafè</t>
   </si>
   <si>
@@ -845,7 +662,226 @@
     <t>Pastelería</t>
   </si>
   <si>
-    <t>Xocolata o Nutella</t>
+    <t>Americano de doble carga</t>
+  </si>
+  <si>
+    <t>Americà de doble càrrega</t>
+  </si>
+  <si>
+    <t>Café doble</t>
+  </si>
+  <si>
+    <t>Cafè doble</t>
+  </si>
+  <si>
+    <t>Café con nata/ Cafè amb nata</t>
+  </si>
+  <si>
+    <t>Café, whisky y nata/ Cafè, whisky i nata</t>
+  </si>
+  <si>
+    <t>The Flat White</t>
+  </si>
+  <si>
+    <t>Chocolate pequeño</t>
+  </si>
+  <si>
+    <t>Leche y chocolate/ Llet amb xocolata</t>
+  </si>
+  <si>
+    <t>Con licor de naranja y nata/ Amb licor de taronja i nata</t>
+  </si>
+  <si>
+    <t>Té especial</t>
+  </si>
+  <si>
+    <t>Te especial</t>
+  </si>
+  <si>
+    <t>Té matcha</t>
+  </si>
+  <si>
+    <t>Té chai</t>
+  </si>
+  <si>
+    <t>Te chai</t>
+  </si>
+  <si>
+    <t>Té chai XL</t>
+  </si>
+  <si>
+    <t>Te chai XL</t>
+  </si>
+  <si>
+    <t>Elige tus ingrdientes, con o sin azucar o sacarina/ Tria els teus ingredients, amb o sense sucre o sacarina</t>
+  </si>
+  <si>
+    <t>Elige tus ingrdientes, a base de agua/ Tria els teus ingredients, a base d'aigua</t>
+  </si>
+  <si>
+    <t>Agua pequeña</t>
+  </si>
+  <si>
+    <t>Aigua petita</t>
+  </si>
+  <si>
+    <t>Agua grande</t>
+  </si>
+  <si>
+    <t>Aigua gran</t>
+  </si>
+  <si>
+    <t>Refrescos</t>
+  </si>
+  <si>
+    <t>Vichy</t>
+  </si>
+  <si>
+    <t>Horchata</t>
+  </si>
+  <si>
+    <t>Orxata</t>
+  </si>
+  <si>
+    <t>Horchata grande</t>
+  </si>
+  <si>
+    <t>Orxata gran</t>
+  </si>
+  <si>
+    <t>Cubano</t>
+  </si>
+  <si>
+    <t>Cubà</t>
+  </si>
+  <si>
+    <t>Horchata con helado de chocolate/ Orxata amb gelat de xocolata</t>
+  </si>
+  <si>
+    <t>Valenciano</t>
+  </si>
+  <si>
+    <t>Valencià</t>
+  </si>
+  <si>
+    <t>Zumo de naranja con helado de vainilla/ Suc de taronja amb gelat de vainilla</t>
+  </si>
+  <si>
+    <t>Ramón</t>
+  </si>
+  <si>
+    <t>Horchata, ron y hielo/ Orxata, ron i gel</t>
+  </si>
+  <si>
+    <t>Queso</t>
+  </si>
+  <si>
+    <t>Formatge</t>
+  </si>
+  <si>
+    <t>Queso manchego</t>
+  </si>
+  <si>
+    <t>Formatge manxec</t>
+  </si>
+  <si>
+    <t>Pollo con quso</t>
+  </si>
+  <si>
+    <t>Pollaste amb formatge</t>
+  </si>
+  <si>
+    <t>Jamón ibérico</t>
+  </si>
+  <si>
+    <t>Pernil ibèric</t>
+  </si>
+  <si>
+    <t>Porqueta con queso</t>
+  </si>
+  <si>
+    <t>Porqueta amb formatge</t>
+  </si>
+  <si>
+    <t>Se puede añadir chucrut por 1€ más/ Es por afegir xucrut per 1€ més</t>
+  </si>
+  <si>
+    <t>Pollo, huevo, tomate, queso y jamón/ Pollastre, ou, tomàquet, formatge i pernil</t>
+  </si>
+  <si>
+    <t>Roast Beef</t>
+  </si>
+  <si>
+    <t>Ternera, pepinillo, mostaza y queso/ Vedella, cogombreta, mostassa i formatge</t>
+  </si>
+  <si>
+    <t>Vegetal</t>
+  </si>
+  <si>
+    <t>Aguacate, tomate, queso de cabra, huevo y espinaca/ Alvocat, tomàquet, formatge de cabra, ou i espinac</t>
+  </si>
+  <si>
+    <t>Revoltillos</t>
+  </si>
+  <si>
+    <t>Remenats</t>
+  </si>
+  <si>
+    <t>Con bacon y queso/ Amb bacó i formatge</t>
+  </si>
+  <si>
+    <t>Suecia</t>
+  </si>
+  <si>
+    <t>Suècia</t>
+  </si>
+  <si>
+    <t>Con salmón y queso crema/ Amb salmó i formatge creós</t>
+  </si>
+  <si>
+    <t>Aguacate, tomate, queso, champiñones y cebolla caramelizada/ Alvocat, tomàquet, formatge, xampinyons i ceba caramel·litzada</t>
+  </si>
+  <si>
+    <t>De la casa</t>
+  </si>
+  <si>
+    <t>Jamón ibérico, aguacate y tomate/ Pernil ibèric, alvocat i tomàquet</t>
+  </si>
+  <si>
+    <t>Atún y queso</t>
+  </si>
+  <si>
+    <t>Tonyina i formatge</t>
+  </si>
+  <si>
+    <t>Salmón con queso crema y huevo</t>
+  </si>
+  <si>
+    <t>Salmó amb formatge cremós i ou</t>
+  </si>
+  <si>
+    <t>Jamón, queso y huevo</t>
+  </si>
+  <si>
+    <t>Pernil, formatge i ou</t>
+  </si>
+  <si>
+    <t>Jamón salado y brie</t>
+  </si>
+  <si>
+    <t>Pernil salat i brie</t>
+  </si>
+  <si>
+    <t>Chocolate o crema de avellana (Nutella)</t>
+  </si>
+  <si>
+    <t>Xocolata o crema d'avellana (Nutella)</t>
+  </si>
+  <si>
+    <t>Chocolate o dulce de leche/ Xocolata o dolç de llet</t>
+  </si>
+  <si>
+    <t>Cookies</t>
   </si>
 </sst>
 </file>
@@ -853,7 +889,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -892,8 +928,8 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -916,7 +952,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1212,10 +1248,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764B0D6E-F8EC-D040-9DCC-1BCD47711C89}">
-  <dimension ref="A1:G134"/>
+  <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1231,25 +1267,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="B1" t="s">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c r="C1" t="s">
-        <v>218</v>
+        <v>164</v>
       </c>
       <c r="D1" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>254</v>
+        <v>193</v>
       </c>
       <c r="F1" t="s">
-        <v>255</v>
+        <v>194</v>
       </c>
       <c r="G1" t="s">
-        <v>256</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1260,13 +1296,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="F2" t="s">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1280,2433 +1316,2515 @@
         <v>1.4</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="F3" t="s">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="G3" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>211</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="F4" t="s">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="G4" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>213</v>
       </c>
       <c r="D5" s="1">
-        <v>1.1000000000000001</v>
+        <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="F5" t="s">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="G5" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1">
         <v>1.3</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="F6" t="s">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="G6" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1">
         <v>1.5</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="F7" t="s">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="G7" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="F8" t="s">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="G8" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="F9" t="s">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="G9" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="D10" s="1">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="F10" t="s">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="G10" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
       </c>
       <c r="D11" s="1">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="F11" t="s">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="G11" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
       </c>
       <c r="D12" s="1">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="F12" t="s">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="G12" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="F13" t="s">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="G13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D14" s="1">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="F14" t="s">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="G14" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F15" t="s">
+        <v>175</v>
+      </c>
+      <c r="G15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="F15" t="s">
-        <v>236</v>
-      </c>
-      <c r="G15" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" s="2">
         <v>4.5</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="F16" t="s">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="G16" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
+        <v>216</v>
       </c>
       <c r="D17" s="1">
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="F17" t="s">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="G17" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="F18" t="s">
-        <v>236</v>
-      </c>
-      <c r="G18" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D19" s="1">
         <v>2.5</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>257</v>
+        <v>197</v>
       </c>
       <c r="F19" t="s">
-        <v>236</v>
+        <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>235</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>217</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D20" s="1">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>257</v>
+        <v>197</v>
       </c>
       <c r="F20" t="s">
-        <v>236</v>
+        <v>24</v>
       </c>
       <c r="G20" t="s">
-        <v>235</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>218</v>
       </c>
       <c r="D21" s="1">
-        <v>2.2999999999999998</v>
+        <v>2</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>257</v>
+        <v>197</v>
       </c>
       <c r="F21" t="s">
-        <v>236</v>
+        <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>235</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D23" s="1">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>258</v>
+        <v>197</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>237</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D24" s="1">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>258</v>
+        <v>197</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G24" t="s">
-        <v>237</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D25" s="1">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>258</v>
+        <v>197</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>237</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D26" s="1">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>258</v>
+        <v>197</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G26" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>39</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="D27" s="1">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>258</v>
+        <v>197</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G27" t="s">
-        <v>237</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D28" s="1">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>258</v>
+        <v>197</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G28" t="s">
-        <v>237</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D29" s="1">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>258</v>
+        <v>197</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G29" t="s">
-        <v>237</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D30" s="1">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>258</v>
+        <v>197</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G30" t="s">
-        <v>237</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D31" s="1">
         <v>4.5</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>258</v>
+        <v>197</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G31" t="s">
-        <v>237</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="D32" s="1">
         <v>3.5</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>258</v>
+        <v>197</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G32" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D36" s="1">
         <v>3</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="F33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="1">
-        <v>3.3</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="F34" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="F35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G35" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" s="1">
-        <v>4.5</v>
-      </c>
       <c r="E36" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="F36" t="s">
-        <v>36</v>
+        <v>198</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="G36" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" t="s">
-        <v>57</v>
+        <v>223</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="D37" s="1">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="F37" t="s">
-        <v>36</v>
+        <v>198</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="G37" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>225</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D38" s="1">
+        <v>4</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G38" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B39" s="3"/>
+      <c r="D39" s="1"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D40" s="1">
+        <v>4</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G40" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D41" s="1">
+        <v>4</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="1">
+      <c r="C42" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="1">
+        <v>4</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G43" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" s="1">
         <v>3.5</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="F38" t="s">
-        <v>36</v>
-      </c>
-      <c r="G38" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="G40" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D41" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="G41" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D43" s="1">
-        <v>4</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="G43" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" s="1">
-        <v>2</v>
-      </c>
       <c r="E44" s="4" t="s">
-        <v>260</v>
+        <v>199</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="G44" t="s">
-        <v>241</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" t="s">
-        <v>228</v>
+        <v>53</v>
       </c>
       <c r="D45" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>260</v>
+        <v>199</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="G45" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D46" s="1">
-        <v>3</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="G46" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>225</v>
+        <v>229</v>
+      </c>
+      <c r="B47" t="s">
+        <v>230</v>
       </c>
       <c r="D47" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G47" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B48" t="s">
+        <v>232</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G48" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D49" s="1">
         <v>2.5</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="G47" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48" s="1">
-        <v>4</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="G48" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="E49" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G49" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>79</v>
+        <v>233</v>
+      </c>
+      <c r="B50" t="s">
+        <v>233</v>
       </c>
       <c r="D50" s="1">
-        <v>3.3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>261</v>
+        <v>200</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="G50" t="s">
-        <v>243</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>81</v>
+        <v>67</v>
+      </c>
+      <c r="B51" t="s">
+        <v>68</v>
       </c>
       <c r="D51" s="1">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>261</v>
+        <v>200</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="G51" t="s">
-        <v>243</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>89</v>
+        <v>69</v>
+      </c>
+      <c r="B52" t="s">
+        <v>70</v>
       </c>
       <c r="D52" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>261</v>
+        <v>200</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="G52" t="s">
-        <v>243</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>90</v>
+        <v>71</v>
+      </c>
+      <c r="B53" t="s">
+        <v>72</v>
       </c>
       <c r="D53" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>261</v>
+        <v>200</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="G53" t="s">
-        <v>243</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D54" s="1">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>261</v>
+        <v>200</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="G54" t="s">
-        <v>243</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C55" t="s">
-        <v>229</v>
+        <v>60</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="D55" s="1">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>261</v>
+        <v>200</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="G55" t="s">
-        <v>243</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="D56" s="1">
         <v>2</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>261</v>
+        <v>200</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="G56" t="s">
-        <v>243</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>94</v>
+        <v>235</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>236</v>
       </c>
       <c r="D57" s="1">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>261</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="G57" t="s">
-        <v>243</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>96</v>
+        <v>237</v>
       </c>
       <c r="B58" t="s">
-        <v>97</v>
+        <v>238</v>
       </c>
       <c r="D58" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>261</v>
+        <v>200</v>
       </c>
       <c r="F58" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G58" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B59" t="s">
+        <v>240</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D59" s="1">
+        <v>4</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G59" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="G58" t="s">
+      <c r="B60" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B59" t="s">
-        <v>99</v>
-      </c>
-      <c r="D59" s="1">
-        <v>2</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="G59" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B60" t="s">
-        <v>101</v>
+      <c r="C60" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="D60" s="1">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>261</v>
+        <v>200</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="G60" t="s">
-        <v>243</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B61" t="s">
-        <v>103</v>
+        <v>245</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="D61" s="1">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>261</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="G61" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B62" t="s">
-        <v>105</v>
-      </c>
-      <c r="D62" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="G62" t="s">
-        <v>243</v>
-      </c>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D62" s="1"/>
+      <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>106</v>
+        <v>74</v>
+      </c>
+      <c r="B63" t="s">
+        <v>75</v>
       </c>
       <c r="D63" s="1">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>261</v>
+        <v>201</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="G63" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D64" s="1"/>
-      <c r="F64" s="3"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" t="s">
+        <v>77</v>
+      </c>
+      <c r="D64" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G64" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="65" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>107</v>
+        <v>247</v>
       </c>
       <c r="B65" t="s">
-        <v>108</v>
+        <v>248</v>
       </c>
       <c r="D65" s="1">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>262</v>
+        <v>201</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="G65" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>109</v>
+        <v>249</v>
       </c>
       <c r="B66" t="s">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="D66" s="1">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>262</v>
+        <v>201</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="G66" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="B67" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="D67" s="1">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>262</v>
+        <v>201</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="G67" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="B68" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="D68" s="1">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>262</v>
+        <v>201</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="G68" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="D69" s="1">
         <v>4.5</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>262</v>
+        <v>201</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="G69" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="B70" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="D70" s="1">
         <v>4.5</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>262</v>
+        <v>201</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="G70" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>119</v>
+        <v>251</v>
       </c>
       <c r="B71" t="s">
-        <v>120</v>
+        <v>252</v>
       </c>
       <c r="D71" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>262</v>
+        <v>201</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="G71" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>122</v>
+        <v>86</v>
+      </c>
+      <c r="B72" t="s">
+        <v>87</v>
       </c>
       <c r="D72" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>262</v>
+        <v>201</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="G72" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>123</v>
+        <v>253</v>
+      </c>
+      <c r="B73" t="s">
+        <v>254</v>
       </c>
       <c r="D73" s="1">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>262</v>
+        <v>201</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="G73" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>124</v>
+        <v>255</v>
+      </c>
+      <c r="B74" t="s">
+        <v>256</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>257</v>
       </c>
       <c r="D74" s="1">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>262</v>
+        <v>201</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="G74" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="B75" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="D75" s="1">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>262</v>
+        <v>201</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="G75" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B76" t="s">
-        <v>127</v>
-      </c>
-      <c r="D76" s="1">
-        <v>2</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G76" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="3"/>
+      <c r="D76" s="1"/>
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B77" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D77" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G77" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B78" t="s">
+        <v>113</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D78" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G78" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B80" t="s">
+        <v>77</v>
+      </c>
+      <c r="D80" s="1">
         <v>2.5</v>
       </c>
-      <c r="E77" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G77" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="3"/>
-      <c r="D78" s="1"/>
-      <c r="F78" s="3"/>
-    </row>
-    <row r="79" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B79" t="s">
-        <v>157</v>
-      </c>
-      <c r="D79" s="1">
-        <v>3</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="G79" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B80" t="s">
-        <v>159</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D80" s="1">
-        <v>4</v>
-      </c>
       <c r="E80" s="4" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>246</v>
+        <v>187</v>
       </c>
       <c r="G80" t="s">
-        <v>247</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81" t="s">
+        <v>90</v>
+      </c>
+      <c r="D81" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G81" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B82" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D82" s="1">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>264</v>
+        <v>203</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
       <c r="G82" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B83" t="s">
-        <v>131</v>
+        <v>93</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="D83" s="1">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>264</v>
+        <v>203</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
       <c r="G83" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="B84" t="s">
-        <v>133</v>
+        <v>95</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="D84" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>264</v>
+        <v>203</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
       <c r="G84" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>231</v>
+        <v>97</v>
+      </c>
+      <c r="C85" t="s">
+        <v>173</v>
       </c>
       <c r="D85" s="1">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>264</v>
+        <v>203</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
       <c r="G85" t="s">
-        <v>249</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B86" t="s">
-        <v>136</v>
+        <v>259</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>137</v>
+        <v>260</v>
       </c>
       <c r="D86" s="1">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="E86" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G86" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D87" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G87" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="1"/>
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D89" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G89" t="s">
         <v>264</v>
       </c>
-      <c r="F86" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="G86" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C87" t="s">
-        <v>232</v>
-      </c>
-      <c r="D87" s="1">
-        <v>3.3</v>
-      </c>
-      <c r="E87" s="4" t="s">
+    </row>
+    <row r="90" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B90" t="s">
+        <v>267</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D90" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G90" t="s">
         <v>264</v>
       </c>
-      <c r="F87" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="G87" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C88" t="s">
-        <v>233</v>
-      </c>
-      <c r="D88" s="1">
-        <v>3</v>
-      </c>
-      <c r="E88" s="4" t="s">
+    </row>
+    <row r="91" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D91" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G91" t="s">
         <v>264</v>
       </c>
-      <c r="F88" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="G88" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D89" s="1">
-        <v>5</v>
-      </c>
-      <c r="E89" s="4" t="s">
+    </row>
+    <row r="92" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D92" s="1">
+        <v>8</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G92" t="s">
         <v>264</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="G89" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B91" t="s">
-        <v>143</v>
-      </c>
-      <c r="D91" s="1">
-        <v>4</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="G91" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B92" t="s">
-        <v>145</v>
-      </c>
-      <c r="D92" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="G92" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B93" t="s">
-        <v>110</v>
-      </c>
-      <c r="D93" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="G93" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="B94" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="D94" s="1">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="G94" t="s">
-        <v>251</v>
+        <v>190</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="B95" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="D95" s="1">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="G95" t="s">
-        <v>251</v>
+        <v>190</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="B96" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="D96" s="1">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="G96" t="s">
-        <v>251</v>
+        <v>190</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>148</v>
+        <v>89</v>
+      </c>
+      <c r="B97" t="s">
+        <v>90</v>
       </c>
       <c r="D97" s="1">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="G97" t="s">
-        <v>251</v>
+        <v>190</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>149</v>
+        <v>272</v>
       </c>
       <c r="B98" t="s">
-        <v>150</v>
+        <v>273</v>
       </c>
       <c r="D98" s="1">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="G98" t="s">
-        <v>251</v>
+        <v>190</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>151</v>
+        <v>91</v>
       </c>
       <c r="B99" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="D99" s="1">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="G99" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="D100" s="1">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="G100" t="s">
-        <v>251</v>
+        <v>190</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>222</v>
+        <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>155</v>
+        <v>104</v>
       </c>
       <c r="D101" s="1">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="G101" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" t="s">
+        <v>106</v>
+      </c>
+      <c r="D102" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G102" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B103" t="s">
-        <v>271</v>
+        <v>107</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="D103" s="1">
-        <v>3.4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>266</v>
+        <v>205</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>252</v>
+        <v>189</v>
       </c>
       <c r="G103" t="s">
-        <v>269</v>
+        <v>190</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B104" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="D104" s="1">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>266</v>
+        <v>205</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>252</v>
+        <v>189</v>
       </c>
       <c r="G104" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>163</v>
+        <v>274</v>
       </c>
       <c r="B105" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D105" s="1">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>266</v>
+        <v>205</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>252</v>
+        <v>189</v>
       </c>
       <c r="G105" t="s">
-        <v>269</v>
+        <v>190</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>165</v>
+        <v>276</v>
       </c>
       <c r="B106" t="s">
-        <v>164</v>
+        <v>277</v>
       </c>
       <c r="D106" s="1">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>266</v>
+        <v>205</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>252</v>
+        <v>189</v>
       </c>
       <c r="G106" t="s">
-        <v>269</v>
+        <v>190</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>166</v>
+        <v>278</v>
       </c>
       <c r="B107" t="s">
-        <v>167</v>
+        <v>279</v>
       </c>
       <c r="D107" s="1">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>266</v>
+        <v>205</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>252</v>
+        <v>189</v>
       </c>
       <c r="G107" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B108" t="s">
-        <v>169</v>
-      </c>
-      <c r="D108" s="1">
-        <v>3</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="G108" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="B109" t="s">
-        <v>171</v>
+        <v>281</v>
       </c>
       <c r="D109" s="1">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="G109" t="s">
-        <v>269</v>
+        <v>208</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="B110" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="D110" s="1">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="G110" t="s">
-        <v>269</v>
+        <v>208</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>174</v>
+        <v>116</v>
       </c>
       <c r="B111" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="D111" s="1">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="G111" t="s">
-        <v>269</v>
+        <v>208</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>177</v>
+        <v>117</v>
       </c>
       <c r="D112" s="1">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="G112" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="D113" s="1">
         <v>3.5</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="G113" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="B114" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c r="D114" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="G114" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="B115" t="s">
-        <v>183</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="D115" s="1">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="G115" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="B116" t="s">
-        <v>186</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="D116" s="1">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="G116" t="s">
-        <v>269</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B117" t="s">
+        <v>128</v>
+      </c>
+      <c r="D117" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G117" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>188</v>
+        <v>129</v>
+      </c>
+      <c r="B118" t="s">
+        <v>130</v>
       </c>
       <c r="D118" s="1">
-        <v>1.1000000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>267</v>
+        <v>206</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>270</v>
+        <v>191</v>
       </c>
       <c r="G118" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="B119" t="s">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="D119" s="1">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>267</v>
+        <v>206</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>270</v>
+        <v>191</v>
       </c>
       <c r="G119" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B120" t="s">
+        <v>134</v>
+      </c>
+      <c r="D120" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F120" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B120" t="s">
-        <v>192</v>
-      </c>
-      <c r="D120" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>270</v>
-      </c>
       <c r="G120" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>223</v>
+        <v>135</v>
       </c>
       <c r="B121" t="s">
-        <v>226</v>
+        <v>136</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="D121" s="1">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>267</v>
+        <v>206</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>270</v>
+        <v>191</v>
       </c>
       <c r="G121" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
       <c r="B122" t="s">
-        <v>194</v>
+        <v>139</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="D122" s="1">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>267</v>
+        <v>206</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>270</v>
+        <v>191</v>
       </c>
       <c r="G122" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D123" s="1">
-        <v>2</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G123" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="D124" s="1">
-        <v>3.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>267</v>
+        <v>206</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
       <c r="G124" t="s">
-        <v>253</v>
+        <v>192</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>197</v>
+        <v>143</v>
+      </c>
+      <c r="B125" t="s">
+        <v>142</v>
       </c>
       <c r="D125" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>267</v>
+        <v>206</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
       <c r="G125" t="s">
-        <v>253</v>
+        <v>192</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="B126" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="D126" s="1">
         <v>2</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>267</v>
+        <v>206</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
       <c r="G126" t="s">
-        <v>253</v>
+        <v>192</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="B127" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="D127" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>267</v>
+        <v>206</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
       <c r="G127" t="s">
-        <v>253</v>
+        <v>192</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="B128" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
       <c r="D128" s="1">
-        <v>1.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>267</v>
+        <v>206</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
       <c r="G128" t="s">
-        <v>253</v>
+        <v>192</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B129" t="s">
-        <v>205</v>
-      </c>
-      <c r="C129" t="s">
-        <v>234</v>
+        <v>148</v>
       </c>
       <c r="D129" s="1">
         <v>2</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>267</v>
+        <v>206</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
       <c r="G129" t="s">
-        <v>253</v>
+        <v>192</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D130" s="1">
+        <v>2</v>
+      </c>
+      <c r="E130" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B130" t="s">
-        <v>207</v>
-      </c>
-      <c r="D130" s="1">
-        <v>1</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>267</v>
-      </c>
       <c r="F130" s="3" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
       <c r="G130" t="s">
-        <v>253</v>
+        <v>192</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="B131" t="s">
-        <v>209</v>
+        <v>151</v>
       </c>
       <c r="D131" s="1">
         <v>2</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>267</v>
+        <v>206</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
       <c r="G131" t="s">
-        <v>253</v>
+        <v>192</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>210</v>
+        <v>152</v>
       </c>
       <c r="B132" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="D132" s="1">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>267</v>
+        <v>206</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
       <c r="G132" t="s">
-        <v>253</v>
+        <v>192</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="B133" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="D133" s="1">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>267</v>
+        <v>206</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
       <c r="G133" t="s">
-        <v>253</v>
+        <v>192</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="B134" t="s">
-        <v>215</v>
+        <v>157</v>
+      </c>
+      <c r="C134" t="s">
+        <v>282</v>
       </c>
       <c r="D134" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G134" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B135" t="s">
+        <v>159</v>
+      </c>
+      <c r="D135" s="1">
+        <v>1</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G135" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A136" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D136" s="1">
+        <v>2</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G136" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B137" t="s">
+        <v>161</v>
+      </c>
+      <c r="D137" s="1">
         <v>3.5</v>
       </c>
-      <c r="E134" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G134" t="s">
-        <v>253</v>
+      <c r="E137" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G137" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/carta.xlsx
+++ b/src/data/carta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barbara/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CC6B88-1BA3-7848-9C62-B78BD4070E40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7616CA-DBDA-494D-B557-9C172D650E3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{BD436563-524E-3745-9593-8EA2223D1823}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12180" windowHeight="17540" xr2:uid="{BD436563-524E-3745-9593-8EA2223D1823}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="287">
   <si>
     <t>Espresso</t>
   </si>
@@ -182,33 +182,15 @@
     <t>Suïs amb Baileys</t>
   </si>
   <si>
-    <t>Batidos a base de leche o bebida vegetal</t>
-  </si>
-  <si>
-    <t>Batuts a base de llet o beguda vegetal</t>
-  </si>
-  <si>
     <t>Botellín de zumo</t>
   </si>
   <si>
     <t>Ampolla de suc</t>
   </si>
   <si>
-    <t>Zumo Natural</t>
-  </si>
-  <si>
-    <t>Suc Natural</t>
-  </si>
-  <si>
     <t>Zumo de naranja natural grande</t>
   </si>
   <si>
-    <t>Zumo de naranja natural pequeño</t>
-  </si>
-  <si>
-    <t>Smoothies</t>
-  </si>
-  <si>
     <t>Con zumo de manzana o agua/ Amb suc de poma o aigua</t>
   </si>
   <si>
@@ -251,9 +233,6 @@
     <t>Cervesa sense alcohol</t>
   </si>
   <si>
-    <t>Voll Damm o Galicia Reserva</t>
-  </si>
-  <si>
     <t>Jamón del país</t>
   </si>
   <si>
@@ -296,9 +275,6 @@
     <t>Bull blanc</t>
   </si>
   <si>
-    <t>Mig entrepà</t>
-  </si>
-  <si>
     <t>Tres quesos</t>
   </si>
   <si>
@@ -458,12 +434,6 @@
     <t>Croissant</t>
   </si>
   <si>
-    <t>Croissant de xocolata</t>
-  </si>
-  <si>
-    <t>Croissant de chocolate</t>
-  </si>
-  <si>
     <t>Croissant de jamón y queso</t>
   </si>
   <si>
@@ -530,9 +500,6 @@
     <t>precio</t>
   </si>
   <si>
-    <t>Medio bocadillo</t>
-  </si>
-  <si>
     <t>Salmón con queso crema</t>
   </si>
   <si>
@@ -542,9 +509,6 @@
     <t>Suc de taronja natural gran</t>
   </si>
   <si>
-    <t>Suc de taronja natural petit</t>
-  </si>
-  <si>
     <t>Ració de melindros</t>
   </si>
   <si>
@@ -698,27 +662,15 @@
     <t>Te especial</t>
   </si>
   <si>
-    <t>Té matcha</t>
-  </si>
-  <si>
     <t>Té chai</t>
   </si>
   <si>
     <t>Te chai</t>
   </si>
   <si>
-    <t>Té chai XL</t>
-  </si>
-  <si>
-    <t>Te chai XL</t>
-  </si>
-  <si>
     <t>Elige tus ingrdientes, con o sin azucar o sacarina/ Tria els teus ingredients, amb o sense sucre o sacarina</t>
   </si>
   <si>
-    <t>Elige tus ingrdientes, a base de agua/ Tria els teus ingredients, a base d'aigua</t>
-  </si>
-  <si>
     <t>Agua pequeña</t>
   </si>
   <si>
@@ -734,9 +686,6 @@
     <t>Refrescos</t>
   </si>
   <si>
-    <t>Vichy</t>
-  </si>
-  <si>
     <t>Horchata</t>
   </si>
   <si>
@@ -872,16 +821,76 @@
     <t>Pernil salat i brie</t>
   </si>
   <si>
-    <t>Chocolate o crema de avellana (Nutella)</t>
-  </si>
-  <si>
-    <t>Xocolata o crema d'avellana (Nutella)</t>
-  </si>
-  <si>
     <t>Chocolate o dulce de leche/ Xocolata o dolç de llet</t>
   </si>
   <si>
     <t>Cookies</t>
+  </si>
+  <si>
+    <t>Extra de leche vegetal</t>
+  </si>
+  <si>
+    <t>Extra de llet vegetal</t>
+  </si>
+  <si>
+    <t>Smoothie a base de leche, agua o bebida vegetal</t>
+  </si>
+  <si>
+    <t>Smoothie a base de llet, aigua o beguda vegetal</t>
+  </si>
+  <si>
+    <t>Smoothie a base de zumo de naranja natural</t>
+  </si>
+  <si>
+    <t>Smoothie a base de suc de taronja natural</t>
+  </si>
+  <si>
+    <t>Zumo de naranja natural</t>
+  </si>
+  <si>
+    <t>Suc de taronja natural</t>
+  </si>
+  <si>
+    <t>Vichy, Tonica, Aquarius, Nestea</t>
+  </si>
+  <si>
+    <t>Cerveza 1906</t>
+  </si>
+  <si>
+    <t>Cervesa 1906</t>
+  </si>
+  <si>
+    <t>Roast beef</t>
+  </si>
+  <si>
+    <t>Medio bocadillo frío</t>
+  </si>
+  <si>
+    <t>Mig entrepà fred</t>
+  </si>
+  <si>
+    <t>Mig entrepà calent</t>
+  </si>
+  <si>
+    <t>Medio bocadillo caliente</t>
+  </si>
+  <si>
+    <t>Extra añadido</t>
+  </si>
+  <si>
+    <t>Extra afegit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chocolate o crema de avellana </t>
+  </si>
+  <si>
+    <t>Xocolata o crema d'avellana</t>
+  </si>
+  <si>
+    <t>Croissant de chocolate o frambuesa</t>
+  </si>
+  <si>
+    <t>Croissant de xocolata o gerds</t>
   </si>
 </sst>
 </file>
@@ -1248,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764B0D6E-F8EC-D040-9DCC-1BCD47711C89}">
-  <dimension ref="A1:G137"/>
+  <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="C142" sqref="C142"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1267,25 +1276,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="G1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1293,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="G2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1313,56 +1322,56 @@
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F3" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="G3" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F4" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="G4" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="G5" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1373,16 +1382,16 @@
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F6" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="G6" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1393,16 +1402,16 @@
         <v>6</v>
       </c>
       <c r="D7" s="1">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="G7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1413,16 +1422,16 @@
         <v>8</v>
       </c>
       <c r="D8" s="1">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F8" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="G8" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1433,33 +1442,33 @@
         <v>10</v>
       </c>
       <c r="D9" s="1">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F9" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="G9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D10" s="1">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F10" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="G10" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1470,16 +1479,16 @@
         <v>12</v>
       </c>
       <c r="D11" s="1">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F11" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="G11" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1493,13 +1502,13 @@
         <v>2.5</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F12" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="G12" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1513,13 +1522,13 @@
         <v>2</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F13" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="G13" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -1536,13 +1545,13 @@
         <v>4.5</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F14" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="G14" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1553,19 +1562,19 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F15" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="G15" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1576,1119 +1585,1086 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="D16" s="2">
         <v>4.5</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F16" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="G16" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D17" s="1">
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F17" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="G17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="F19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" t="s">
-        <v>176</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>265</v>
+      </c>
+      <c r="B18" t="s">
+        <v>266</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="1">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="F20" t="s">
         <v>24</v>
       </c>
       <c r="G20" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" t="s">
-        <v>218</v>
+        <v>26</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="F21" t="s">
         <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>206</v>
       </c>
       <c r="D22" s="1">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="F22" t="s">
         <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D23" s="1">
         <v>3.5</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="F23" t="s">
         <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D24" s="1">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="F24" t="s">
         <v>24</v>
       </c>
       <c r="G24" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D25" s="1">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="F25" t="s">
         <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D26" s="1">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="F26" t="s">
         <v>24</v>
       </c>
       <c r="G26" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>219</v>
+        <v>38</v>
       </c>
       <c r="D27" s="1">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="F27" t="s">
         <v>24</v>
       </c>
       <c r="G27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="D28" s="1">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="F28" t="s">
         <v>24</v>
       </c>
       <c r="G28" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D29" s="1">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="F29" t="s">
         <v>24</v>
       </c>
       <c r="G29" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D30" s="1">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="F30" t="s">
         <v>24</v>
       </c>
       <c r="G30" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D31" s="1">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="F31" t="s">
         <v>24</v>
       </c>
       <c r="G31" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>63</v>
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
       </c>
       <c r="D32" s="1">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="F32" t="s">
         <v>24</v>
       </c>
       <c r="G32" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G34" t="s">
-        <v>178</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="1">
+        <v>4</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>221</v>
-      </c>
+      <c r="A35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="3"/>
       <c r="D35" s="1">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="G35" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="D36" s="1">
-        <v>3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="G36" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="D37" s="1">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="G37" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>225</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D38" s="1">
-        <v>4</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G38" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="3"/>
-      <c r="D39" s="1"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B38" s="3"/>
+      <c r="D38" s="1"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D39" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G39" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>50</v>
+        <v>269</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>51</v>
+        <v>270</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D40" s="1">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="G40" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>54</v>
+        <v>271</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="D41" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="G41" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="D42" s="1">
         <v>4</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="G42" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>170</v>
+        <v>51</v>
       </c>
       <c r="D43" s="1">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="G43" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D44" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G44" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>53</v>
+        <v>213</v>
+      </c>
+      <c r="B45" t="s">
+        <v>214</v>
       </c>
       <c r="D45" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G45" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46" t="s">
+        <v>216</v>
+      </c>
+      <c r="D46" s="1">
         <v>2</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G45" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E46" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G46" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B47" t="s">
-        <v>230</v>
+        <v>273</v>
       </c>
       <c r="D47" s="1">
-        <v>1.1000000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="G47" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="B48" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="D48" s="1">
-        <v>2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="G48" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>234</v>
+        <v>61</v>
+      </c>
+      <c r="B49" t="s">
+        <v>62</v>
       </c>
       <c r="D49" s="1">
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="G49" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>233</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>233</v>
+        <v>64</v>
       </c>
       <c r="D50" s="1">
-        <v>2.2000000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="G50" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D51" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="G51" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>69</v>
+        <v>274</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>275</v>
       </c>
       <c r="D52" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G52" t="s">
-        <v>182</v>
-      </c>
+        <v>2.8</v>
+      </c>
+      <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B53" t="s">
-        <v>72</v>
+        <v>54</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="D53" s="1">
         <v>1.5</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="G53" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D54" s="1">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="G54" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>61</v>
+        <v>218</v>
+      </c>
+      <c r="B55" t="s">
+        <v>219</v>
       </c>
       <c r="D55" s="1">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="G55" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>66</v>
+        <v>220</v>
+      </c>
+      <c r="B56" t="s">
+        <v>221</v>
       </c>
       <c r="D56" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="G56" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="B57" t="s">
-        <v>236</v>
+        <v>223</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="D57" s="1">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="G57" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="B58" t="s">
-        <v>238</v>
+        <v>226</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="D58" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="G58" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B59" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D59" s="1">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="G59" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B60" t="s">
-        <v>243</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D60" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G60" t="s">
-        <v>182</v>
-      </c>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D60" s="1"/>
+      <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>246</v>
+        <v>67</v>
+      </c>
+      <c r="B61" t="s">
+        <v>68</v>
       </c>
       <c r="D61" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G61" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" s="1">
         <v>4</v>
       </c>
-      <c r="E61" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G61" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D62" s="1"/>
-      <c r="F62" s="3"/>
+      <c r="E62" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G62" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>231</v>
       </c>
       <c r="D63" s="1">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="G63" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="B64" t="s">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="D64" s="1">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="G64" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>247</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>248</v>
+        <v>72</v>
       </c>
       <c r="D65" s="1">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="G65" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>249</v>
+        <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>250</v>
+        <v>74</v>
       </c>
       <c r="D66" s="1">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="G66" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D67" s="1">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="G67" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B68" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D68" s="1">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="G68" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="B69" t="s">
-        <v>83</v>
+        <v>235</v>
       </c>
       <c r="D69" s="1">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="G69" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B70" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D70" s="1">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="G70" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="B71" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="D71" s="1">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="G71" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B72" t="s">
-        <v>87</v>
+        <v>276</v>
       </c>
       <c r="D72" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G72" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="B73" t="s">
-        <v>254</v>
+        <v>239</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="D73" s="1">
         <v>5.5</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="G73" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="B74" t="s">
-        <v>256</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="D74" s="1">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="G74" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>166</v>
+        <v>280</v>
       </c>
       <c r="B75" t="s">
-        <v>88</v>
+        <v>279</v>
       </c>
       <c r="D75" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G75" t="s">
-        <v>184</v>
-      </c>
+        <v>3.2</v>
+      </c>
+      <c r="F75" s="3"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
@@ -2697,1134 +2673,1147 @@
     </row>
     <row r="77" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B77" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D77" s="1">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="G77" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B78" t="s">
-        <v>113</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>172</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C78" s="3"/>
       <c r="D78" s="1">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="G78" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B80" t="s">
-        <v>77</v>
-      </c>
-      <c r="D80" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G80" t="s">
-        <v>188</v>
-      </c>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B79" t="s">
+        <v>282</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F79" s="3"/>
     </row>
     <row r="81" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B81" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D81" s="1">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="G81" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D82" s="1">
         <v>3.5</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="G82" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>258</v>
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>84</v>
       </c>
       <c r="D83" s="1">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="G83" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B84" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="D84" s="1">
+        <v>5</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G84" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D85" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G85" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86" t="s">
+        <v>161</v>
+      </c>
+      <c r="D86" s="1">
         <v>4</v>
       </c>
-      <c r="E84" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G84" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C85" t="s">
-        <v>173</v>
-      </c>
-      <c r="D85" s="1">
-        <v>4</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G85" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D86" s="1">
-        <v>6.5</v>
-      </c>
       <c r="E86" s="4" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="G86" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="D87" s="1">
         <v>6.5</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="G87" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="1"/>
-      <c r="F88" s="3"/>
-    </row>
-    <row r="89" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D88" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G88" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="1"/>
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>2</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D89" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="G89" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="B90" t="s">
-        <v>267</v>
-      </c>
       <c r="C90" s="3" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="D90" s="1">
         <v>6.5</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="G90" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>261</v>
+        <v>249</v>
+      </c>
+      <c r="B91" t="s">
+        <v>250</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="D91" s="1">
         <v>6.5</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="G91" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="D92" s="1">
+        <v>7</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G92" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D93" s="1">
         <v>8</v>
       </c>
-      <c r="E92" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="G92" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B94" t="s">
-        <v>99</v>
-      </c>
-      <c r="D94" s="1">
-        <v>4</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G94" t="s">
-        <v>190</v>
+      <c r="E93" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G93" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B95" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G95" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="B96" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D96" s="1">
         <v>3.9</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G96" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B97" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D97" s="1">
         <v>4</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G97" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>272</v>
+        <v>81</v>
       </c>
       <c r="B98" t="s">
-        <v>273</v>
+        <v>82</v>
       </c>
       <c r="D98" s="1">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G98" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>91</v>
+        <v>255</v>
       </c>
       <c r="B99" t="s">
-        <v>92</v>
+        <v>256</v>
       </c>
       <c r="D99" s="1">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G99" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>102</v>
+        <v>83</v>
+      </c>
+      <c r="B100" t="s">
+        <v>84</v>
       </c>
       <c r="D100" s="1">
         <v>4</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G100" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B101" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D101" s="1">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G101" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B102" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D102" s="1">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G102" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
+      </c>
+      <c r="B103" t="s">
+        <v>98</v>
       </c>
       <c r="D103" s="1">
-        <v>4.9000000000000004</v>
+        <v>3.7</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G103" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B104" t="s">
-        <v>109</v>
+        <v>99</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="D104" s="1">
         <v>5</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G104" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>274</v>
+        <v>156</v>
       </c>
       <c r="B105" t="s">
-        <v>275</v>
+        <v>101</v>
       </c>
       <c r="D105" s="1">
+        <v>5</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G105" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B106" t="s">
+        <v>258</v>
+      </c>
+      <c r="D106" s="1">
         <v>6</v>
       </c>
-      <c r="E105" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G105" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B106" t="s">
-        <v>277</v>
-      </c>
-      <c r="D106" s="1">
-        <v>5</v>
-      </c>
       <c r="E106" s="4" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G106" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="B107" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="D107" s="1">
+        <v>5</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G107" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B108" t="s">
+        <v>262</v>
+      </c>
+      <c r="D108" s="1">
         <v>5.5</v>
       </c>
-      <c r="E107" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G107" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B109" t="s">
-        <v>281</v>
-      </c>
-      <c r="D109" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G109" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="E108" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G108" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>114</v>
+        <v>283</v>
       </c>
       <c r="B110" t="s">
-        <v>115</v>
+        <v>284</v>
       </c>
       <c r="D110" s="1">
         <v>3.9</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G110" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B111" t="s">
-        <v>207</v>
+        <v>107</v>
       </c>
       <c r="D111" s="1">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G111" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B112" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="D112" s="1">
-        <v>3.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G112" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D113" s="1">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G113" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D114" s="1">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G114" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D115" s="1">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G115" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D116" s="1">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G116" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D117" s="1">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G117" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B118" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D118" s="1">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G118" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D119" s="1">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G119" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D120" s="1">
         <v>4.5</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G120" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B121" t="s">
-        <v>136</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D121" s="1">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G121" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B122" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D122" s="1">
+        <v>5</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G122" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B123" t="s">
+        <v>131</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D123" s="1">
         <v>0.6</v>
       </c>
-      <c r="E122" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G122" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D124" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G124" t="s">
-        <v>192</v>
+      <c r="E123" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G123" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B125" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D125" s="1">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="G125" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>144</v>
+        <v>285</v>
       </c>
       <c r="B126" t="s">
-        <v>145</v>
+        <v>286</v>
       </c>
       <c r="D126" s="1">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="G126" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="B127" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="D127" s="1">
-        <v>1.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="G127" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B128" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="D128" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="G128" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>148</v>
+        <v>136</v>
+      </c>
+      <c r="B129" t="s">
+        <v>137</v>
       </c>
       <c r="D129" s="1">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="G129" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D130" s="1">
         <v>2</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="G130" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B131" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D131" s="1">
         <v>2</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="G131" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B132" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D132" s="1">
-        <v>1.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="G132" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B133" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D133" s="1">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="G133" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B134" t="s">
-        <v>157</v>
-      </c>
-      <c r="C134" t="s">
-        <v>282</v>
+        <v>145</v>
       </c>
       <c r="D134" s="1">
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="G134" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B135" t="s">
-        <v>159</v>
+        <v>147</v>
+      </c>
+      <c r="C135" t="s">
+        <v>263</v>
       </c>
       <c r="D135" s="1">
-        <v>1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="G135" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>283</v>
+        <v>148</v>
+      </c>
+      <c r="B136" t="s">
+        <v>149</v>
       </c>
       <c r="D136" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="G136" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B137" t="s">
-        <v>161</v>
+        <v>264</v>
       </c>
       <c r="D137" s="1">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="G137" t="s">
-        <v>192</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B138" t="s">
+        <v>151</v>
+      </c>
+      <c r="D138" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G138" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/carta.xlsx
+++ b/src/data/carta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barbara/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7616CA-DBDA-494D-B557-9C172D650E3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A72DC3B-0C55-7B47-A1ED-ED541D3C0C25}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12180" windowHeight="17540" xr2:uid="{BD436563-524E-3745-9593-8EA2223D1823}"/>
+    <workbookView xWindow="9660" yWindow="740" windowWidth="17900" windowHeight="17500" xr2:uid="{BD436563-524E-3745-9593-8EA2223D1823}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="286">
   <si>
     <t>Espresso</t>
   </si>
@@ -191,9 +191,6 @@
     <t>Zumo de naranja natural grande</t>
   </si>
   <si>
-    <t>Con zumo de manzana o agua/ Amb suc de poma o aigua</t>
-  </si>
-  <si>
     <t>Vaso de leche</t>
   </si>
   <si>
@@ -746,15 +743,6 @@
     <t>Pernil ibèric</t>
   </si>
   <si>
-    <t>Porqueta con queso</t>
-  </si>
-  <si>
-    <t>Porqueta amb formatge</t>
-  </si>
-  <si>
-    <t>Se puede añadir chucrut por 1€ más/ Es por afegir xucrut per 1€ més</t>
-  </si>
-  <si>
     <t>Pollo, huevo, tomate, queso y jamón/ Pollastre, ou, tomàquet, formatge i pernil</t>
   </si>
   <si>
@@ -833,27 +821,12 @@
     <t>Extra de llet vegetal</t>
   </si>
   <si>
-    <t>Smoothie a base de leche, agua o bebida vegetal</t>
-  </si>
-  <si>
-    <t>Smoothie a base de llet, aigua o beguda vegetal</t>
-  </si>
-  <si>
-    <t>Smoothie a base de zumo de naranja natural</t>
-  </si>
-  <si>
-    <t>Smoothie a base de suc de taronja natural</t>
-  </si>
-  <si>
     <t>Zumo de naranja natural</t>
   </si>
   <si>
     <t>Suc de taronja natural</t>
   </si>
   <si>
-    <t>Vichy, Tonica, Aquarius, Nestea</t>
-  </si>
-  <si>
     <t>Cerveza 1906</t>
   </si>
   <si>
@@ -891,6 +864,30 @@
   </si>
   <si>
     <t>Croissant de xocolata o gerds</t>
+  </si>
+  <si>
+    <t>Batidos a base de leche o bebida vegetal</t>
+  </si>
+  <si>
+    <t>Batuts a base de llet o beguda vegetal</t>
+  </si>
+  <si>
+    <t>Zumo natural</t>
+  </si>
+  <si>
+    <t>Suc natural</t>
+  </si>
+  <si>
+    <t>Con base de agua/ Amb base d'aigua</t>
+  </si>
+  <si>
+    <t>Pida la carta/ Demani la carta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smoothie </t>
+  </si>
+  <si>
+    <t>Vichy o Tonica</t>
   </si>
 </sst>
 </file>
@@ -1259,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764B0D6E-F8EC-D040-9DCC-1BCD47711C89}">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1276,25 +1273,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
         <v>152</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>153</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>154</v>
       </c>
-      <c r="D1" t="s">
-        <v>155</v>
-      </c>
       <c r="E1" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" t="s">
         <v>181</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>182</v>
-      </c>
-      <c r="G1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1302,16 +1299,16 @@
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1325,53 +1322,53 @@
         <v>1.5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" t="s">
         <v>198</v>
-      </c>
-      <c r="B4" t="s">
-        <v>199</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" t="s">
         <v>200</v>
-      </c>
-      <c r="B5" t="s">
-        <v>201</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1382,16 +1379,16 @@
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1402,16 +1399,16 @@
         <v>6</v>
       </c>
       <c r="D7" s="1">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1425,13 +1422,13 @@
         <v>1.6</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1445,30 +1442,30 @@
         <v>2.9</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="1">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1482,13 +1479,13 @@
         <v>2.5</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1502,13 +1499,13 @@
         <v>2.5</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1522,13 +1519,13 @@
         <v>2</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -1545,13 +1542,13 @@
         <v>4.5</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1562,19 +1559,19 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1585,44 +1582,44 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D16" s="2">
         <v>4.5</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D17" s="1">
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B18" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D18" s="1">
         <v>0.2</v>
@@ -1636,36 +1633,36 @@
         <v>25</v>
       </c>
       <c r="D20" s="1">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F20" t="s">
         <v>24</v>
       </c>
       <c r="G20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="1">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F21" t="s">
         <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1676,19 +1673,19 @@
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D22" s="1">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F22" t="s">
         <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1702,13 +1699,13 @@
         <v>3.5</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F23" t="s">
         <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1722,13 +1719,13 @@
         <v>3.5</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F24" t="s">
         <v>24</v>
       </c>
       <c r="G24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1742,13 +1739,13 @@
         <v>3</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F25" t="s">
         <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1762,13 +1759,13 @@
         <v>3.5</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F26" t="s">
         <v>24</v>
       </c>
       <c r="G26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1782,13 +1779,13 @@
         <v>3</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F27" t="s">
         <v>24</v>
       </c>
       <c r="G27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -1799,19 +1796,19 @@
         <v>39</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D28" s="1">
         <v>4.5</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F28" t="s">
         <v>24</v>
       </c>
       <c r="G28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1822,16 +1819,16 @@
         <v>41</v>
       </c>
       <c r="D29" s="1">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F29" t="s">
         <v>24</v>
       </c>
       <c r="G29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1842,16 +1839,16 @@
         <v>45</v>
       </c>
       <c r="D30" s="1">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F30" t="s">
         <v>24</v>
       </c>
       <c r="G30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1865,13 +1862,13 @@
         <v>3</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F31" t="s">
         <v>24</v>
       </c>
       <c r="G31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1885,13 +1882,13 @@
         <v>4.5</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F32" t="s">
         <v>24</v>
       </c>
       <c r="G32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1899,80 +1896,80 @@
         <v>43</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" s="1">
         <v>4</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F33" t="s">
         <v>24</v>
       </c>
       <c r="G33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" t="s">
         <v>58</v>
-      </c>
-      <c r="B35" t="s">
-        <v>59</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="1">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F35" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G35" t="s">
         <v>165</v>
-      </c>
-      <c r="G35" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="D36" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F36" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G36" t="s">
         <v>165</v>
-      </c>
-      <c r="G36" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>209</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="D37" s="1">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F37" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G37" t="s">
         <v>165</v>
-      </c>
-      <c r="G37" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1982,684 +1979,682 @@
     </row>
     <row r="39" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D39" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G39" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D40" s="1">
         <v>4.3</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F39" s="3" t="s">
+      <c r="E40" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G40" t="s">
         <v>167</v>
-      </c>
-      <c r="G39" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G40" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>272</v>
+        <v>284</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="D41" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F41" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G41" t="s">
         <v>167</v>
       </c>
-      <c r="G41" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G42" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D42" s="1">
-        <v>4</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F42" s="3" t="s">
+      <c r="B43" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D43" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G43" t="s">
         <v>167</v>
       </c>
-      <c r="G42" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+    </row>
+    <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="1">
-        <v>2</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F43" s="3" t="s">
+      <c r="D44" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G44" t="s">
         <v>167</v>
-      </c>
-      <c r="G43" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B45" t="s">
-        <v>214</v>
-      </c>
-      <c r="D45" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G45" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B46" t="s">
+        <v>213</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G46" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B47" t="s">
         <v>215</v>
       </c>
-      <c r="B46" t="s">
-        <v>216</v>
-      </c>
-      <c r="D46" s="1">
+      <c r="D47" s="1">
         <v>2</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F46" s="3" t="s">
+      <c r="E47" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G47" t="s">
         <v>169</v>
-      </c>
-      <c r="G46" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D47" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G47" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B48" t="s">
-        <v>217</v>
+        <v>285</v>
       </c>
       <c r="D48" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F48" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G48" t="s">
         <v>169</v>
-      </c>
-      <c r="G48" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>216</v>
       </c>
       <c r="D49" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F49" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G49" t="s">
         <v>169</v>
-      </c>
-      <c r="G49" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D50" s="1">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F50" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G50" t="s">
         <v>169</v>
-      </c>
-      <c r="G50" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D51" s="1">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F51" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G51" t="s">
         <v>169</v>
-      </c>
-      <c r="G51" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>274</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>275</v>
+        <v>65</v>
       </c>
       <c r="D52" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="F52" s="3"/>
+        <v>1.7</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G52" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>55</v>
+        <v>265</v>
+      </c>
+      <c r="B53" t="s">
+        <v>266</v>
       </c>
       <c r="D53" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G53" t="s">
-        <v>170</v>
-      </c>
+        <v>2.8</v>
+      </c>
+      <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D54" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F54" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G54" t="s">
         <v>169</v>
-      </c>
-      <c r="G54" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B55" t="s">
-        <v>219</v>
+        <v>59</v>
       </c>
       <c r="D55" s="1">
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F55" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G55" t="s">
         <v>169</v>
-      </c>
-      <c r="G55" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B56" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D56" s="1">
         <v>3</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F56" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G56" t="s">
         <v>169</v>
       </c>
-      <c r="G56" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B57" t="s">
-        <v>223</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D57" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F57" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G57" t="s">
         <v>169</v>
-      </c>
-      <c r="G57" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B58" t="s">
+        <v>222</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D58" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G58" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B59" t="s">
         <v>225</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C59" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="D59" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D58" s="1">
-        <v>4</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F58" s="3" t="s">
+      <c r="C60" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D60" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G60" t="s">
         <v>169</v>
       </c>
-      <c r="G58" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D59" s="1">
-        <v>4.8</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G59" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D60" s="1"/>
-      <c r="F60" s="3"/>
-    </row>
-    <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B61" t="s">
-        <v>68</v>
-      </c>
-      <c r="D61" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G61" t="s">
-        <v>172</v>
-      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D61" s="1"/>
+      <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D62" s="1">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F62" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G62" t="s">
         <v>171</v>
-      </c>
-      <c r="G62" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>230</v>
+        <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>231</v>
+        <v>69</v>
       </c>
       <c r="D63" s="1">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F63" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G63" t="s">
         <v>171</v>
-      </c>
-      <c r="G63" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B64" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D64" s="1">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F64" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G64" t="s">
         <v>171</v>
-      </c>
-      <c r="G64" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>71</v>
+        <v>231</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>232</v>
       </c>
       <c r="D65" s="1">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F65" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G65" t="s">
         <v>171</v>
-      </c>
-      <c r="G65" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D66" s="1">
         <v>4</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F66" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G66" t="s">
         <v>171</v>
-      </c>
-      <c r="G66" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D67" s="1">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F67" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G67" t="s">
         <v>171</v>
-      </c>
-      <c r="G67" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D68" s="1">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F68" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G68" t="s">
         <v>171</v>
-      </c>
-      <c r="G68" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>234</v>
+        <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="D69" s="1">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F69" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G69" t="s">
         <v>171</v>
-      </c>
-      <c r="G69" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="B70" t="s">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="D70" s="1">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F70" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G70" t="s">
         <v>171</v>
-      </c>
-      <c r="G70" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>236</v>
+        <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="D71" s="1">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F71" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G71" t="s">
         <v>171</v>
-      </c>
-      <c r="G71" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>276</v>
+        <v>235</v>
+      </c>
+      <c r="B72" t="s">
+        <v>236</v>
       </c>
       <c r="D72" s="1">
+        <v>7</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G72" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D73" s="1">
         <v>6</v>
       </c>
-      <c r="F72" s="3"/>
-    </row>
-    <row r="73" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B73" t="s">
-        <v>239</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D73" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G73" t="s">
-        <v>172</v>
-      </c>
+      <c r="F73" s="3"/>
     </row>
     <row r="74" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B74" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D74" s="1">
         <v>2.8</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F74" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G74" t="s">
         <v>171</v>
-      </c>
-      <c r="G74" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B75" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D75" s="1">
         <v>3.2</v>
@@ -2673,54 +2668,54 @@
     </row>
     <row r="77" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B77" t="s">
         <v>102</v>
-      </c>
-      <c r="B77" t="s">
-        <v>103</v>
       </c>
       <c r="D77" s="1">
         <v>4</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F77" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G77" t="s">
         <v>173</v>
-      </c>
-      <c r="G77" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78" t="s">
         <v>104</v>
-      </c>
-      <c r="B78" t="s">
-        <v>105</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="1">
         <v>5</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F78" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G78" t="s">
         <v>173</v>
-      </c>
-      <c r="G78" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B79" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D79" s="1">
         <v>0.6</v>
@@ -2729,165 +2724,165 @@
     </row>
     <row r="81" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B81" t="s">
         <v>69</v>
-      </c>
-      <c r="B81" t="s">
-        <v>70</v>
       </c>
       <c r="D81" s="1">
         <v>2.5</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F81" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G81" t="s">
         <v>175</v>
-      </c>
-      <c r="G81" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
         <v>81</v>
-      </c>
-      <c r="B82" t="s">
-        <v>82</v>
       </c>
       <c r="D82" s="1">
         <v>3.5</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F82" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G82" t="s">
         <v>175</v>
-      </c>
-      <c r="G82" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
         <v>83</v>
-      </c>
-      <c r="B83" t="s">
-        <v>84</v>
       </c>
       <c r="D83" s="1">
         <v>3.5</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F83" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G83" t="s">
         <v>175</v>
-      </c>
-      <c r="G83" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D84" s="1">
         <v>5</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F84" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G84" t="s">
         <v>175</v>
-      </c>
-      <c r="G84" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
         <v>86</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="D85" s="1">
         <v>4.5</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F85" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G85" t="s">
         <v>175</v>
-      </c>
-      <c r="G85" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D86" s="1">
         <v>4</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F86" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G86" t="s">
         <v>175</v>
-      </c>
-      <c r="G86" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D87" s="1">
         <v>6.5</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F87" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G87" t="s">
         <v>175</v>
-      </c>
-      <c r="G87" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D88" s="1">
         <v>6.7</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F88" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G88" t="s">
         <v>175</v>
-      </c>
-      <c r="G88" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -2904,916 +2899,916 @@
         <v>2</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D90" s="1">
         <v>6.5</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G90" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B91" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D91" s="1">
         <v>6.5</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G91" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D92" s="1">
         <v>7</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G92" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D93" s="1">
         <v>8</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G93" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B95" t="s">
         <v>90</v>
-      </c>
-      <c r="B95" t="s">
-        <v>91</v>
       </c>
       <c r="D95" s="1">
         <v>4</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F95" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G95" t="s">
         <v>177</v>
-      </c>
-      <c r="G95" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B96" t="s">
         <v>92</v>
-      </c>
-      <c r="B96" t="s">
-        <v>93</v>
       </c>
       <c r="D96" s="1">
         <v>3.9</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F96" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G96" t="s">
         <v>177</v>
-      </c>
-      <c r="G96" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B97" t="s">
         <v>69</v>
-      </c>
-      <c r="B97" t="s">
-        <v>70</v>
       </c>
       <c r="D97" s="1">
         <v>4</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F97" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G97" t="s">
         <v>177</v>
-      </c>
-      <c r="G97" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B98" t="s">
         <v>81</v>
-      </c>
-      <c r="B98" t="s">
-        <v>82</v>
       </c>
       <c r="D98" s="1">
         <v>4.5</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F98" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G98" t="s">
         <v>177</v>
-      </c>
-      <c r="G98" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B99" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D99" s="1">
         <v>4</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F99" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G99" t="s">
         <v>177</v>
-      </c>
-      <c r="G99" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B100" t="s">
         <v>83</v>
-      </c>
-      <c r="B100" t="s">
-        <v>84</v>
       </c>
       <c r="D100" s="1">
         <v>4</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F100" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G100" t="s">
         <v>177</v>
-      </c>
-      <c r="G100" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D101" s="1">
         <v>4</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F101" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G101" t="s">
         <v>177</v>
-      </c>
-      <c r="G101" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B102" t="s">
         <v>95</v>
-      </c>
-      <c r="B102" t="s">
-        <v>96</v>
       </c>
       <c r="D102" s="1">
         <v>4</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F102" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G102" t="s">
         <v>177</v>
-      </c>
-      <c r="G102" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B103" t="s">
         <v>97</v>
-      </c>
-      <c r="B103" t="s">
-        <v>98</v>
       </c>
       <c r="D103" s="1">
         <v>3.7</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F103" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G103" t="s">
         <v>177</v>
-      </c>
-      <c r="G103" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="D104" s="1">
         <v>5</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F104" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G104" t="s">
         <v>177</v>
-      </c>
-      <c r="G104" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B105" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D105" s="1">
         <v>5</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F105" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G105" t="s">
         <v>177</v>
-      </c>
-      <c r="G105" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B106" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D106" s="1">
         <v>6</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F106" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G106" t="s">
         <v>177</v>
-      </c>
-      <c r="G106" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B107" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D107" s="1">
         <v>5</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F107" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G107" t="s">
         <v>177</v>
-      </c>
-      <c r="G107" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B108" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D108" s="1">
         <v>5.5</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F108" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G108" t="s">
         <v>177</v>
-      </c>
-      <c r="G108" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B110" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D110" s="1">
         <v>3.9</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G110" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B111" t="s">
         <v>106</v>
-      </c>
-      <c r="B111" t="s">
-        <v>107</v>
       </c>
       <c r="D111" s="1">
         <v>4.2</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G111" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B112" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D112" s="1">
         <v>4.4000000000000004</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G112" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B113" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D113" s="1">
         <v>3.9</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G113" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B114" t="s">
         <v>111</v>
-      </c>
-      <c r="B114" t="s">
-        <v>112</v>
       </c>
       <c r="D114" s="1">
         <v>3.9</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G114" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B115" t="s">
         <v>113</v>
-      </c>
-      <c r="B115" t="s">
-        <v>114</v>
       </c>
       <c r="D115" s="1">
         <v>3.9</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G115" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
         <v>115</v>
-      </c>
-      <c r="B116" t="s">
-        <v>116</v>
       </c>
       <c r="D116" s="1">
         <v>3.9</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G116" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
         <v>117</v>
-      </c>
-      <c r="B117" t="s">
-        <v>118</v>
       </c>
       <c r="D117" s="1">
         <v>3.9</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G117" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" t="s">
         <v>119</v>
-      </c>
-      <c r="B118" t="s">
-        <v>120</v>
       </c>
       <c r="D118" s="1">
         <v>3.9</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G118" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" t="s">
         <v>121</v>
-      </c>
-      <c r="B119" t="s">
-        <v>122</v>
       </c>
       <c r="D119" s="1">
         <v>3.9</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G119" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B120" t="s">
         <v>123</v>
-      </c>
-      <c r="B120" t="s">
-        <v>124</v>
       </c>
       <c r="D120" s="1">
         <v>4.5</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G120" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" t="s">
         <v>125</v>
-      </c>
-      <c r="B121" t="s">
-        <v>126</v>
       </c>
       <c r="D121" s="1">
         <v>5</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G121" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B122" t="s">
         <v>127</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="D122" s="1">
         <v>5</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G122" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" t="s">
         <v>130</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="D123" s="1">
         <v>0.6</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G123" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D125" s="1">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G125" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B126" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D126" s="1">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G126" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" t="s">
         <v>134</v>
       </c>
-      <c r="B127" t="s">
-        <v>135</v>
-      </c>
       <c r="D127" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G127" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B128" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D128" s="1">
         <v>1.5</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G128" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129" t="s">
         <v>136</v>
       </c>
-      <c r="B129" t="s">
-        <v>137</v>
-      </c>
       <c r="D129" s="1">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G129" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D130" s="1">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G130" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D131" s="1">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G131" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B132" t="s">
         <v>140</v>
       </c>
-      <c r="B132" t="s">
-        <v>141</v>
-      </c>
       <c r="D132" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G132" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B133" t="s">
         <v>142</v>
       </c>
-      <c r="B133" t="s">
-        <v>143</v>
-      </c>
       <c r="D133" s="1">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G133" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B134" t="s">
         <v>144</v>
-      </c>
-      <c r="B134" t="s">
-        <v>145</v>
       </c>
       <c r="D134" s="1">
         <v>2</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G134" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B135" t="s">
         <v>146</v>
       </c>
-      <c r="B135" t="s">
-        <v>147</v>
-      </c>
       <c r="C135" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D135" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G135" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B136" t="s">
         <v>148</v>
       </c>
-      <c r="B136" t="s">
-        <v>149</v>
-      </c>
       <c r="D136" s="1">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G136" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D137" s="1">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G137" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B138" t="s">
         <v>150</v>
       </c>
-      <c r="B138" t="s">
-        <v>151</v>
-      </c>
       <c r="D138" s="1">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G138" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/carta.xlsx
+++ b/src/data/carta.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barbara/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alejandrorosas/personal/carta/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A72DC3B-0C55-7B47-A1ED-ED541D3C0C25}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4E3168-7EF1-9E45-A30A-E5F0736918F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9660" yWindow="740" windowWidth="17900" windowHeight="17500" xr2:uid="{BD436563-524E-3745-9593-8EA2223D1823}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="287">
   <si>
     <t>Espresso</t>
   </si>
@@ -888,6 +888,9 @@
   </si>
   <si>
     <t>Vichy o Tonica</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -958,7 +961,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1257,7 +1260,7 @@
   <dimension ref="A1:G138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A120" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134"/>
+      <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3548,7 +3551,7 @@
         <v>1.5</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>193</v>
+        <v>286</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>196</v>
@@ -3568,7 +3571,7 @@
         <v>1.9</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>193</v>
+        <v>286</v>
       </c>
       <c r="F126" s="3" t="s">
         <v>196</v>
@@ -3588,7 +3591,7 @@
         <v>2.5</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>193</v>
+        <v>286</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>196</v>
@@ -3608,7 +3611,7 @@
         <v>1.5</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>193</v>
+        <v>286</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>196</v>
@@ -3628,7 +3631,7 @@
         <v>1.4</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>193</v>
+        <v>286</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>196</v>
@@ -3645,7 +3648,7 @@
         <v>2.4</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>193</v>
+        <v>286</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>196</v>
@@ -3662,7 +3665,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>193</v>
+        <v>286</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>196</v>
@@ -3682,7 +3685,7 @@
         <v>2.5</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>193</v>
+        <v>286</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>196</v>
@@ -3702,7 +3705,7 @@
         <v>1.5</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>193</v>
+        <v>286</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>196</v>
@@ -3722,7 +3725,7 @@
         <v>2</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>193</v>
+        <v>286</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>196</v>
@@ -3745,7 +3748,7 @@
         <v>2.5</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>193</v>
+        <v>286</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>196</v>
@@ -3765,7 +3768,7 @@
         <v>1.2</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>193</v>
+        <v>286</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>196</v>
@@ -3782,7 +3785,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>193</v>
+        <v>286</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>196</v>
@@ -3802,7 +3805,7 @@
         <v>4</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>193</v>
+        <v>286</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>196</v>
